--- a/biology/Zoologie/Claude_Charles_Goureau/Claude_Charles_Goureau.xlsx
+++ b/biology/Zoologie/Claude_Charles_Goureau/Claude_Charles_Goureau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Charles Goureau est un militaire et un entomologiste français, né le 15 avril 1790 à Pisy dans l'Yonne et mort le 6 février 1879 à Santigny.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1808, il entre à l’école polytechnique dont il ressort deuxième en 1810. Il passe deux ans à l’École d'application de l'artillerie et du génie de Metz d'où il ressort avec le grade de sous-lieutenant. Durant le siège de Magdebourg en 1812, il obtient le rang de capitaine, puis, en 1814 de capitaine d’état-major et reçoit la Légion d'honneur. Il est chargé de diverses fortifications, dont celles de Paris en 1840 mais aussi dans la Manche, la Mayenne, l’Ille-et-Vilaine. En 1846, il devient officier de la Légion d’honneur. Après sa retraite, en 1850 à Santigny, il s’occupe pleinement d’entomologie.
 Goureau se consacre surtout à l’étude des insectes nuisibles. Membre de la Société entomologique de France en 1835, il est vice-président en 1842, 1844 et 1851, président en 1845 et 1852, membre honoraire en 1866.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Insectes nuisibles aux arbres fruitiers, aux plantes potagères, aux céréales et aux plantes fourragères (deux volumes, V. Masson et fils, Paris, 1861-1865).
 Les Insectes nuisibles à l'homme, aux animaux et à l'économie domestiques (V. Masson et fils, Paris, 1866).
